--- a/A-Testing/Medical Insurance/Medical Insurance.xlsx
+++ b/A-Testing/Medical Insurance/Medical Insurance.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AdventsProduct\Others\A-Testing\Medical Insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B4388C-53E6-44AA-8A9F-4BAD1F89015A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E6E39F-8762-47AF-865D-A4C987625AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="1" xr2:uid="{49B57A98-DBEB-4D19-9694-D677266CA7AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="2" xr2:uid="{49B57A98-DBEB-4D19-9694-D677266CA7AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Associate" sheetId="2" r:id="rId1"/>
     <sheet name="Final Salary" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="MIS" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="112">
   <si>
     <t>S No</t>
   </si>
@@ -248,6 +249,132 @@
   </si>
   <si>
     <t>"DOL",</t>
+  </si>
+  <si>
+    <t>SL No</t>
+  </si>
+  <si>
+    <t>Corp ID</t>
+  </si>
+  <si>
+    <t>ClientID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Policy Type</t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>Premium Cost</t>
+  </si>
+  <si>
+    <t>Billing Type</t>
+  </si>
+  <si>
+    <t>EC Industry</t>
+  </si>
+  <si>
+    <t>EC Industry - Sales Force</t>
+  </si>
+  <si>
+    <t>EC Rates for Lombard</t>
+  </si>
+  <si>
+    <t>Updated Date</t>
+  </si>
+  <si>
+    <t>Updated Name</t>
+  </si>
+  <si>
+    <t>GTL Policy</t>
+  </si>
+  <si>
+    <t>Remarks 2</t>
+  </si>
+  <si>
+    <t>Insurance Company</t>
+  </si>
+  <si>
+    <t>Policy Start Date</t>
+  </si>
+  <si>
+    <t>Policy End Date</t>
+  </si>
+  <si>
+    <t>Parental ID</t>
+  </si>
+  <si>
+    <t>TPA Name</t>
+  </si>
+  <si>
+    <t>"SL No",</t>
+  </si>
+  <si>
+    <t>"Corp ID",</t>
+  </si>
+  <si>
+    <t>"ClientID",</t>
+  </si>
+  <si>
+    <t>"Status",</t>
+  </si>
+  <si>
+    <t>"Policy Type",</t>
+  </si>
+  <si>
+    <t>"GMC",</t>
+  </si>
+  <si>
+    <t>"GPA",</t>
+  </si>
+  <si>
+    <t>"Premium Cost",</t>
+  </si>
+  <si>
+    <t>"Billing Type",</t>
+  </si>
+  <si>
+    <t>"EC Industry",</t>
+  </si>
+  <si>
+    <t>"EC Industry - Sales Force",</t>
+  </si>
+  <si>
+    <t>"EC Rates for Lombard",</t>
+  </si>
+  <si>
+    <t>"Updated Date",</t>
+  </si>
+  <si>
+    <t>"Updated Name",</t>
+  </si>
+  <si>
+    <t>"GTL Policy",</t>
+  </si>
+  <si>
+    <t>"Remarks 2",</t>
+  </si>
+  <si>
+    <t>"Insurance Company",</t>
+  </si>
+  <si>
+    <t>"Policy Start Date",</t>
+  </si>
+  <si>
+    <t>"Policy End Date",</t>
+  </si>
+  <si>
+    <t>"Parental ID",</t>
+  </si>
+  <si>
+    <t>"TPA Name",</t>
   </si>
 </sst>
 </file>
@@ -961,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61E310F-E888-426C-819D-CFBD033CF2B1}">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1922,6 +2049,935 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BE9EDB-CA86-4645-B6BF-A855CCC54C54}">
+  <dimension ref="A1:AH32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="str">
+        <f>_xlfn.CONCAT("""",A1,"""", ",")</f>
+        <v>"SL No",</v>
+      </c>
+      <c r="G1" t="str">
+        <f>_xlfn.CONCAT("""", B1, """", ",")</f>
+        <v>"char",</v>
+      </c>
+      <c r="H1" t="str">
+        <f>_xlfn.CONCAT(C1, ",")</f>
+        <v>1,</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F22" si="0">_xlfn.CONCAT("""",A2,"""", ",")</f>
+        <v>"Corp ID",</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G22" si="1">_xlfn.CONCAT("""", B2, """", ",")</f>
+        <v>"char",</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H22" si="2">_xlfn.CONCAT(C2, ",")</f>
+        <v>0,</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>"ClientID",</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Status",</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Client Name",</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Policy Type",</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>"GMC",</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>"GPA",</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Premium Cost",</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Billing Type",</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>"EC Industry",</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>"EC Industry - Sales Force",</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>"EC Rates for Lombard",</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Updated Date",</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Updated Name",</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>"GTL Policy",</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>"Remarks 2",</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>"Insurance Company",</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>"Policy Start Date",</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>"date",</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I19" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>"Policy End Date",</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>"date",</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>"Parental ID",</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>"TPA Name",</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>0,</v>
+      </c>
+      <c r="I22" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="M30" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" t="s">
+        <v>92</v>
+      </c>
+      <c r="O30" t="s">
+        <v>93</v>
+      </c>
+      <c r="P30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>48</v>
+      </c>
+      <c r="R30" t="s">
+        <v>95</v>
+      </c>
+      <c r="S30" t="s">
+        <v>96</v>
+      </c>
+      <c r="T30" t="s">
+        <v>97</v>
+      </c>
+      <c r="U30" t="s">
+        <v>98</v>
+      </c>
+      <c r="V30" t="s">
+        <v>99</v>
+      </c>
+      <c r="W30" t="s">
+        <v>100</v>
+      </c>
+      <c r="X30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="M31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" t="s">
+        <v>33</v>
+      </c>
+      <c r="S31" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" t="s">
+        <v>33</v>
+      </c>
+      <c r="U31" t="s">
+        <v>33</v>
+      </c>
+      <c r="V31" t="s">
+        <v>33</v>
+      </c>
+      <c r="W31" t="s">
+        <v>33</v>
+      </c>
+      <c r="X31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="M32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>35</v>
+      </c>
+      <c r="R32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S32" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" t="s">
+        <v>35</v>
+      </c>
+      <c r="U32" t="s">
+        <v>35</v>
+      </c>
+      <c r="V32" t="s">
+        <v>35</v>
+      </c>
+      <c r="W32" t="s">
+        <v>35</v>
+      </c>
+      <c r="X32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31647462-414E-4484-85EE-D4F5D3E85532}">
   <dimension ref="A1:AM31"/>
   <sheetViews>

--- a/A-Testing/Medical Insurance/Medical Insurance.xlsx
+++ b/A-Testing/Medical Insurance/Medical Insurance.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AdventsProduct\Others\A-Testing\Medical Insurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E6E39F-8762-47AF-865D-A4C987625AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9EF693-0A71-46D5-802D-9030FD2104ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="2" xr2:uid="{49B57A98-DBEB-4D19-9694-D677266CA7AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="3" xr2:uid="{49B57A98-DBEB-4D19-9694-D677266CA7AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Associate" sheetId="2" r:id="rId1"/>
     <sheet name="Final Salary" sheetId="4" r:id="rId2"/>
     <sheet name="MIS" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Exit Report" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="113">
   <si>
     <t>S No</t>
   </si>
@@ -375,6 +376,9 @@
   </si>
   <si>
     <t>"TPA Name",</t>
+  </si>
+  <si>
+    <t>Associate Id</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BE9EDB-CA86-4645-B6BF-A855CCC54C54}">
   <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -2978,6 +2982,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7999731B-0B9E-4621-9C56-DE2ABF98A4EA}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31647462-414E-4484-85EE-D4F5D3E85532}">
   <dimension ref="A1:AM31"/>
   <sheetViews>
